--- a/Assignments/Assignment 05/CitiesTemperature.xlsx
+++ b/Assignments/Assignment 05/CitiesTemperature.xlsx
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.99</v>
+        <v>21.99</v>
       </c>
     </row>
     <row r="5">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25.35</v>
+        <v>21.58</v>
       </c>
     </row>
     <row r="6">
